--- a/foreigner/checklist.xlsx
+++ b/foreigner/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/foreigner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{484FC7B4-297D-474C-8EB1-D43F7A5F2D96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F0EA9C-B501-6042-8B97-E4DCCC7749C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{540C9EDC-2786-0240-9FD9-F95852C1EA06}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{540C9EDC-2786-0240-9FD9-F95852C1EA06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>year</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>Magic &amp; City</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>No. 136</t>
+  </si>
+  <si>
+    <t>No. 136-1</t>
   </si>
 </sst>
 </file>
@@ -435,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B9861E-A033-234F-9BF9-BB8AF7AE47ED}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,7 +459,7 @@
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +478,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1987</v>
       </c>
@@ -489,8 +501,11 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -505,6 +520,9 @@
       </c>
       <c r="F3" t="s">
         <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
